--- a/docs/PST1/PST1_16.08.2024_output.xlsx
+++ b/docs/PST1/PST1_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1676 +505,1989 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731083241.66196</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731083243.598878</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083241.66196.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083243.598878.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.21</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.92</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.7100000000000364</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731083243.6128433</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731083245.6463928</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083243.6128433.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083245.6463928.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.92</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5200000000000387</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731083245.6620135</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731083247.9104958</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083245.6620135.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083247.9104958.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.4</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731083248.2724745</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731083248.7247853</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083248.2724745.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083248.7247853.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.98</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.43</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731083249.146414</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731083250.2408333</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083249.146414.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083250.2408333.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.09</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.72</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3699999999999477</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731083256.1630769</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731083257.99274</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083256.1630769.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083257.99274.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.21</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.92</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.7100000000000364</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731083258.008362</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731083259.7869859</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083258.008362.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083259.7869859.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.92</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5200000000000387</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731083259.802582</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731083261.9582725</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083259.802582.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083261.9582725.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>277.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731083262.305148</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731083262.7583234</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083262.305148.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083262.7583234.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>277.98</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>278.43</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731083263.1640818</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731083264.2409039</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083263.1640818.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083264.2409039.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.09</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.72</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.3699999999999477</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731083273.9239266</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731083279.9758492</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083273.9239266.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083279.9758492.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.29</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>278.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.2099999999999795</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731083279.99147</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731083281.110722</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083279.99147.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083281.110722.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.09</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.410000000000025</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731083283.1467946</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731083285.2243276</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083283.1467946.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083285.2243276.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.02</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>278.63</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6100000000000136</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731083285.239916</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731083286.3336968</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083285.239916.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083286.3336968.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278.63</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>278.41</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2199999999999704</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731083286.3493178</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731083286.943752</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083286.3493178.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083286.943752.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>278.41</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>278.75</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.339999999999975</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731083286.943752</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731083286.943752.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731083286.943752.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>278.75</v>
       </c>
-      <c r="J18" t="n">
-        <v>278.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>278.65</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731083290.6307092</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731083292.0997045</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083290.6307092.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083292.0997045.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>127.64</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.37</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.269999999999996</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731083297.8675332</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731083300.1933234</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083297.8675332.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083300.1933234.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>127.59</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>126.74</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.8500000000000085</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731083300.6838765</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731083302.162055</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083300.6838765.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083302.162055.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>126.96</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>126.87</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.0899999999999892</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731083326.8300204</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731083328.7388847</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083326.8300204.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083328.7388847.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6329</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6321.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731083345.9757054</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731083346.707742</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083345.9757054.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083346.707742.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6314</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6305</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>9</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731083350.6635704</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731083350.6635704.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731083350.6635704.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6320</v>
       </c>
-      <c r="J24" t="n">
-        <v>6320</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>6326</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731083357.2399764</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731083362.9569411</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731083357.2399764.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731083362.9569411.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>494.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>494.7</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731083362.9725335</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731083376.4827461</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731083362.9725335.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731083376.4827461.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>494.7</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>492.35</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-2.349999999999966</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731083376.498367</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731083377.645117</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731083376.498367.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731083377.645117.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>492.35</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>492.05</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731083378.9818506</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731083380.3465307</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731083378.9818506.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731083380.3465307.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>493.1</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>493</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731083388.7865875</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731083392.771073</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731083388.7865875.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731083392.771073.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>223.11</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>223.78</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.6699999999999875</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731083405.258373</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731083405.258373.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731083405.258373.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>223.76</v>
       </c>
-      <c r="J30" t="n">
-        <v>223.76</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>223.79</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731083422.9806883</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731083423.9222949</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083422.9806883.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083423.9222949.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1026.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1026.2</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731083431.6919632</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731083432.3431017</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083431.6919632.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083432.3431017.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1019.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1017.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731083434.1927698</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731083434.5295699</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083434.1927698.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083434.5295699.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1017.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1014.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731083435.179608</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731083438.3247154</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083435.179608.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083438.3247154.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1017.8</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1018.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.8000000000000682</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731083446.4130344</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731083447.5841515</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083446.4130344.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083447.5841515.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1014.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1016.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731083451.0337224</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731083451.0337224.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731083451.0337224.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1021</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1021</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2167,1167 +2495,1383 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731083453.691711</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731083454.8030162</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083453.691711.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083454.8030162.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>12.109</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>12.123</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.01399999999999935</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731083457.6296122</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731083463.162051</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083457.6296122.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083463.162051.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>12.122</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>12.114</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.007999999999999119</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731083465.475261</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731083466.144638</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083465.475261.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083466.144638.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>12.122</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>12.126</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731083472.1080823</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731083477.287991</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083472.1080823.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083477.287991.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>12.092</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>12.093</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.0009999999999994458</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731083477.316666</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731083479.4101765</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083477.316666.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083479.4101765.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>12.093</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>12.091</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.002000000000000668</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731083495.646365</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731083496.8955846</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083495.646365.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083496.8955846.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>125.02</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>124.6</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.4200000000000017</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731083504.944015</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731083509.7261906</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083504.944015.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083509.7261906.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>125.34</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>125.58</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.2399999999999949</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731083509.741811</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731083512.6612399</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083509.741811.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083512.6612399.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>125.58</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>126.02</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731083518.2877076</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731083519.3219614</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083518.2877076.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083519.3219614.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>161.26</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>161.36</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731083519.3375823</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731083521.801791</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083519.3375823.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083521.801791.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>161.36</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>161.82</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.4599999999999795</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731083542.4011922</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731083542.4011922.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731083542.4011922.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>162.78</v>
       </c>
-      <c r="J47" t="n">
-        <v>162.78</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>162.94</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731083555.6383219</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731083557.2631695</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083555.6383219.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083557.2631695.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>49.735</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>49.685</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731083560.581269</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731083563.4984722</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083560.581269.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083563.4984722.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>49.76</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>49.685</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731083563.5184643</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731083571.1538193</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083563.5184643.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083571.1538193.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>49.685</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>49.795</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731083571.1624453</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731083572.5721164</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083571.1624453.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083572.5721164.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>49.795</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>49.765</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731083572.5889976</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731083574.7713578</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083572.5889976.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083574.7713578.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>49.765</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>49.84</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731083577.6296408</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731083587.5996385</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083577.6296408.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083587.5996385.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1381.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1375.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-5.800000000000182</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731083587.6156151</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731083589.0685506</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083587.6156151.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083589.0685506.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1375.6</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1379.2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-3.600000000000136</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731083593.863055</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731083603.2467782</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083593.863055.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083603.2467782.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1378.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1387.2</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-8.799999999999955</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731083603.2623992</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731083605.0789466</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083603.2623992.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083605.0789466.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1387.2</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1388</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731083606.6682427</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731083618.0788922</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083606.6682427.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083618.0788922.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>58.85</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>58.76</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731083618.0795698</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731083626.5903842</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083618.0795698.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083626.5903842.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>58.76</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>58.67</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.08999999999999631</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731083626.6067102</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731083627.2657137</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083626.6067102.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083627.2657137.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>58.67</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>58.63</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731083643.0079353</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731083645.3093958</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083643.0079353.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083645.3093958.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>98.72</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>98.72</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3335,375 +3879,447 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731083646.6461067</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731083648.0423472</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083646.6461067.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083648.0423472.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>98.78</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>98.56999999999999</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731083650.2381325</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731083658.0356052</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083650.2381325.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083658.0356052.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>98.47</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>98.95999999999999</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.4899999999999949</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731083658.0631297</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731083658.0631297.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731083658.0631297.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>98.95999999999999</v>
       </c>
-      <c r="J63" t="n">
-        <v>98.95999999999999</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
+      <c r="L63" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731083672.065234</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731083683.5836296</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731083672.065234.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731083683.5836296.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>54.49</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>54.39</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731083698.6917999</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731083705.0815785</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083698.6917999.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083705.0815785.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>152.54</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>153.02</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.4800000000000182</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731083709.3476343</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731083715.6781235</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083709.3476343.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083715.6781235.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>152.48</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>152.32</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731083715.6937442</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731083716.550488</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083715.6937442.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083716.550488.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>152.32</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>152.78</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731083721.443045</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731083721.443045.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731083721.443045.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>153.28</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>153.28</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3711,515 +4327,614 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731083726.3955967</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731083726.3955967.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731083726.3955967.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.3042</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.3042</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
+      <c r="L69" t="n">
+        <v>0.3056</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.001399999999999957</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731083737.197991</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731083739.882629</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083737.197991.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083739.882629.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>19.812</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>19.793</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.0190000000000019</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731083739.8982518</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731083745.7366564</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083739.8982518.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083745.7366564.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>19.793</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>19.769</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.02400000000000091</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731083750.1592903</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731083752.7853334</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083750.1592903.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083752.7853334.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>19.752</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>19.73</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.02199999999999847</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731083762.941178</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731083764.7384052</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083762.941178.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083764.7384052.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>19.87</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>19.928</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.05799999999999983</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731083775.1766453</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731083783.9617434</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083775.1766453.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083783.9617434.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>675.7</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>675.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731083783.9773643</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731083789.9099853</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083783.9773643.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083789.9099853.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>675.6</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>676</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731083795.4386961</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731083795.4386961.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731083795.4386961.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>675</v>
       </c>
-      <c r="J76" t="n">
-        <v>675</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>674.9</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731083813.6924345</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731083830.9988172</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731083813.6924345.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731083830.9988172.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>148.57</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>149.04</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.4699999999999989</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731083831.0088513</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731083832.638794</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731083831.0088513.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731083832.638794.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>149.04</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>149.05</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.01000000000001933</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731083832.6589298</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731083832.6589298.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731083832.6589298.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>149.05</v>
       </c>
-      <c r="J79" t="n">
-        <v>149.05</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
+      <c r="L79" t="n">
+        <v>149.02</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +4948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4972,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4265,11 +4995,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.460000000000093</v>
+        <v>2.560000000000116</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.2327272727272833</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4283,6 +5022,15 @@
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.533333333333322</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4296,6 +5044,15 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.00259999999999998</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4309,6 +5066,15 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.06799999999999926</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4322,6 +5088,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.3820000000000278</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4335,6 +5110,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.02124999999999932</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4348,6 +5132,15 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>-4.35000000000008</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4356,11 +5149,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7000000000000028</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.07499999999999929</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4374,6 +5176,15 @@
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.2750000000000057</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4387,6 +5198,15 @@
       <c r="C11" t="n">
         <v>4</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.4624999999999773</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.3799999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4395,11 +5215,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.5</v>
+        <v>-0.3999999999999773</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.1333333333333258</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4408,11 +5237,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4599999999999795</v>
+        <v>0.4299999999999784</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.1433333333333261</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4421,11 +5259,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3599999999999568</v>
+        <v>-0.1999999999999602</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.0666666666666534</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4439,6 +5286,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.01333333333333542</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4447,11 +5303,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4465,6 +5330,15 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.2066666666666682</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4478,6 +5352,15 @@
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.2233333333333339</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4486,11 +5369,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.6699999999999875</v>
+        <v>-0.6399999999999864</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4499,11 +5391,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.001399999999999957</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.001399999999999957</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.46</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4517,6 +5418,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4530,6 +5440,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
